--- a/timflow_coord/240603.xlsx
+++ b/timflow_coord/240603.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hstimbergroup-my.sharepoint.com/personal/cristian_vacaru_hs_ro/Documents/Documents/GitHub/monitoring2/timflow_coord/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_89C004141E70D21DAEFF31D2F8375B0634143C1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,11 +49,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +117,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +203,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,14 +448,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -439,7 +494,7 @@
         <v>26.36709022521973</v>
       </c>
       <c r="E2">
-        <v>45.64701080322266</v>
+        <v>45.647010803222663</v>
       </c>
       <c r="F2" s="2">
         <v>45446</v>
@@ -448,7 +503,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -456,10 +511,10 @@
         <v>2100125301280</v>
       </c>
       <c r="D3">
-        <v>26.36977005004883</v>
+        <v>26.369770050048832</v>
       </c>
       <c r="E3">
-        <v>45.63082885742188</v>
+        <v>45.630828857421882</v>
       </c>
       <c r="F3" s="2">
         <v>45446</v>
@@ -468,7 +523,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -476,10 +531,10 @@
         <v>2200260105060</v>
       </c>
       <c r="D4">
-        <v>22.77905082702637</v>
+        <v>22.779050827026371</v>
       </c>
       <c r="E4">
-        <v>46.71578979492188</v>
+        <v>46.715789794921882</v>
       </c>
       <c r="F4" s="2">
         <v>45446</v>
@@ -488,7 +543,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -496,10 +551,10 @@
         <v>2200260105060</v>
       </c>
       <c r="D5">
-        <v>22.70895004272461</v>
+        <v>22.708950042724609</v>
       </c>
       <c r="E5">
-        <v>46.73670959472656</v>
+        <v>46.736709594726563</v>
       </c>
       <c r="F5" s="2">
         <v>45446</v>
@@ -508,7 +563,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -519,7 +574,7 @@
         <v>22.82267951965332</v>
       </c>
       <c r="E6">
-        <v>46.71004867553711</v>
+        <v>46.710048675537109</v>
       </c>
       <c r="F6" s="2">
         <v>45446</v>
@@ -528,7 +583,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -539,7 +594,7 @@
         <v>26.27069091796875</v>
       </c>
       <c r="E7">
-        <v>46.38666152954102</v>
+        <v>46.386661529541023</v>
       </c>
       <c r="F7" s="2">
         <v>45446</v>
@@ -548,7 +603,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -556,10 +611,10 @@
         <v>2300005500290</v>
       </c>
       <c r="D8">
-        <v>26.27154922485352</v>
+        <v>26.271549224853519</v>
       </c>
       <c r="E8">
-        <v>46.3878288269043</v>
+        <v>46.387828826904297</v>
       </c>
       <c r="F8" s="2">
         <v>45446</v>
@@ -568,7 +623,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -576,10 +631,10 @@
         <v>2300005500290</v>
       </c>
       <c r="D9">
-        <v>26.29297065734863</v>
+        <v>26.292970657348629</v>
       </c>
       <c r="E9">
-        <v>46.40071868896484</v>
+        <v>46.400718688964837</v>
       </c>
       <c r="F9" s="2">
         <v>45446</v>
@@ -588,7 +643,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -596,10 +651,10 @@
         <v>2300005601730</v>
       </c>
       <c r="D10">
-        <v>26.23637008666992</v>
+        <v>26.236370086669918</v>
       </c>
       <c r="E10">
-        <v>46.67815017700195</v>
+        <v>46.678150177001953</v>
       </c>
       <c r="F10" s="2">
         <v>45446</v>
@@ -608,7 +663,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -616,10 +671,10 @@
         <v>2300009603690</v>
       </c>
       <c r="D11">
-        <v>25.71031951904297</v>
+        <v>25.710319519042969</v>
       </c>
       <c r="E11">
-        <v>45.37274932861328</v>
+        <v>45.372749328613281</v>
       </c>
       <c r="F11" s="2">
         <v>45446</v>
@@ -628,7 +683,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -636,10 +691,10 @@
         <v>2300016400780</v>
       </c>
       <c r="D12">
-        <v>25.1152400970459</v>
+        <v>25.115240097045898</v>
       </c>
       <c r="E12">
-        <v>47.66236877441406</v>
+        <v>47.662368774414063</v>
       </c>
       <c r="F12" s="2">
         <v>45446</v>
@@ -648,7 +703,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -656,10 +711,10 @@
         <v>2300019606040</v>
       </c>
       <c r="D13">
-        <v>24.91280937194824</v>
+        <v>24.912809371948239</v>
       </c>
       <c r="E13">
-        <v>47.71598052978516</v>
+        <v>47.715980529785163</v>
       </c>
       <c r="F13" s="2">
         <v>45446</v>
@@ -668,7 +723,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -676,10 +731,10 @@
         <v>2300019606040</v>
       </c>
       <c r="D14">
-        <v>24.97175025939941</v>
+        <v>24.971750259399411</v>
       </c>
       <c r="E14">
-        <v>47.71743011474609</v>
+        <v>47.717430114746087</v>
       </c>
       <c r="F14" s="2">
         <v>45446</v>
@@ -688,7 +743,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -696,10 +751,10 @@
         <v>2300019606040</v>
       </c>
       <c r="D15">
-        <v>24.94528007507324</v>
+        <v>24.945280075073239</v>
       </c>
       <c r="E15">
-        <v>47.71809005737305</v>
+        <v>47.718090057373047</v>
       </c>
       <c r="F15" s="2">
         <v>45446</v>
@@ -708,7 +763,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -719,7 +774,7 @@
         <v>26.3059196472168</v>
       </c>
       <c r="E16">
-        <v>46.98537826538086</v>
+        <v>46.985378265380859</v>
       </c>
       <c r="F16" s="2">
         <v>45446</v>
@@ -728,7 +783,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -736,10 +791,10 @@
         <v>2300022001830</v>
       </c>
       <c r="D17">
-        <v>26.21706962585449</v>
+        <v>26.217069625854489</v>
       </c>
       <c r="E17">
-        <v>47.03691101074219</v>
+        <v>47.036911010742188</v>
       </c>
       <c r="F17" s="2">
         <v>45446</v>
@@ -748,7 +803,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -756,10 +811,10 @@
         <v>2300022001830</v>
       </c>
       <c r="D18">
-        <v>26.21207046508789</v>
+        <v>26.212070465087891</v>
       </c>
       <c r="E18">
-        <v>47.03934097290039</v>
+        <v>47.039340972900391</v>
       </c>
       <c r="F18" s="2">
         <v>45446</v>
@@ -768,7 +823,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -779,7 +834,7 @@
         <v>26.2227897644043</v>
       </c>
       <c r="E19">
-        <v>47.04542922973633</v>
+        <v>47.045429229736328</v>
       </c>
       <c r="F19" s="2">
         <v>45446</v>
@@ -788,7 +843,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -796,10 +851,10 @@
         <v>2300022002030</v>
       </c>
       <c r="D20">
-        <v>26.28293991088867</v>
+        <v>26.282939910888668</v>
       </c>
       <c r="E20">
-        <v>47.03699111938477</v>
+        <v>47.036991119384773</v>
       </c>
       <c r="F20" s="2">
         <v>45446</v>
@@ -808,7 +863,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -819,7 +874,7 @@
         <v>26.27671051025391</v>
       </c>
       <c r="E21">
-        <v>47.04504013061523</v>
+        <v>47.045040130615227</v>
       </c>
       <c r="F21" s="2">
         <v>45446</v>
@@ -828,7 +883,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -836,10 +891,10 @@
         <v>2300022002030</v>
       </c>
       <c r="D22">
-        <v>26.28062057495117</v>
+        <v>26.280620574951168</v>
       </c>
       <c r="E22">
-        <v>47.03913879394531</v>
+        <v>47.039138793945313</v>
       </c>
       <c r="F22" s="2">
         <v>45446</v>
@@ -848,7 +903,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -856,10 +911,10 @@
         <v>2300023800290</v>
       </c>
       <c r="D23">
-        <v>26.22121047973633</v>
+        <v>26.221210479736332</v>
       </c>
       <c r="E23">
-        <v>47.19741821289062</v>
+        <v>47.197418212890618</v>
       </c>
       <c r="F23" s="2">
         <v>45446</v>
@@ -868,7 +923,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -876,7 +931,7 @@
         <v>2300023800290</v>
       </c>
       <c r="D24">
-        <v>26.23554992675781</v>
+        <v>26.235549926757809</v>
       </c>
       <c r="E24">
         <v>47.21759033203125</v>
@@ -888,7 +943,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -896,10 +951,10 @@
         <v>2300023800290</v>
       </c>
       <c r="D25">
-        <v>26.23331069946289</v>
+        <v>26.233310699462891</v>
       </c>
       <c r="E25">
-        <v>47.21649932861328</v>
+        <v>47.216499328613281</v>
       </c>
       <c r="F25" s="2">
         <v>45446</v>
@@ -908,7 +963,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -916,10 +971,10 @@
         <v>2300023800380</v>
       </c>
       <c r="D26">
-        <v>26.18621063232422</v>
+        <v>26.186210632324219</v>
       </c>
       <c r="E26">
-        <v>47.14690017700195</v>
+        <v>47.146900177001953</v>
       </c>
       <c r="F26" s="2">
         <v>45446</v>
@@ -928,7 +983,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -936,10 +991,10 @@
         <v>2300023800380</v>
       </c>
       <c r="D27">
-        <v>26.23086929321289</v>
+        <v>26.230869293212891</v>
       </c>
       <c r="E27">
-        <v>47.16172027587891</v>
+        <v>47.161720275878913</v>
       </c>
       <c r="F27" s="2">
         <v>45446</v>
@@ -948,7 +1003,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -956,10 +1011,10 @@
         <v>2300023800380</v>
       </c>
       <c r="D28">
-        <v>26.22159957885742</v>
+        <v>26.221599578857418</v>
       </c>
       <c r="E28">
-        <v>47.14884948730469</v>
+        <v>47.148849487304688</v>
       </c>
       <c r="F28" s="2">
         <v>45446</v>
@@ -968,7 +1023,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -976,7 +1031,7 @@
         <v>2300023800380</v>
       </c>
       <c r="D29">
-        <v>26.1860294342041</v>
+        <v>26.186029434204102</v>
       </c>
       <c r="E29">
         <v>47.1456298828125</v>
@@ -988,7 +1043,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -999,7 +1054,7 @@
         <v>26.19009971618652</v>
       </c>
       <c r="E30">
-        <v>47.14395904541016</v>
+        <v>47.143959045410163</v>
       </c>
       <c r="F30" s="2">
         <v>45446</v>
@@ -1008,7 +1063,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1016,10 +1071,10 @@
         <v>2300023800500</v>
       </c>
       <c r="D31">
-        <v>26.27420997619629</v>
+        <v>26.274209976196289</v>
       </c>
       <c r="E31">
-        <v>47.11230087280273</v>
+        <v>47.112300872802727</v>
       </c>
       <c r="F31" s="2">
         <v>45446</v>
@@ -1028,7 +1083,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1036,10 +1091,10 @@
         <v>2300023800500</v>
       </c>
       <c r="D32">
-        <v>26.27540969848633</v>
+        <v>26.275409698486332</v>
       </c>
       <c r="E32">
-        <v>47.12660980224609</v>
+        <v>47.126609802246087</v>
       </c>
       <c r="F32" s="2">
         <v>45446</v>
@@ -1048,7 +1103,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1123,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1076,10 +1131,10 @@
         <v>2300023801020</v>
       </c>
       <c r="D34">
-        <v>26.3015193939209</v>
+        <v>26.301519393920898</v>
       </c>
       <c r="E34">
-        <v>47.28633117675781</v>
+        <v>47.286331176757813</v>
       </c>
       <c r="F34" s="2">
         <v>45446</v>
@@ -1088,7 +1143,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1096,10 +1151,10 @@
         <v>2300023801020</v>
       </c>
       <c r="D35">
-        <v>26.28022956848145</v>
+        <v>26.280229568481449</v>
       </c>
       <c r="E35">
-        <v>47.28702163696289</v>
+        <v>47.287021636962891</v>
       </c>
       <c r="F35" s="2">
         <v>45446</v>
@@ -1108,7 +1163,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1171,7 @@
         <v>2300023801030</v>
       </c>
       <c r="D36">
-        <v>26.29800033569336</v>
+        <v>26.298000335693359</v>
       </c>
       <c r="E36">
         <v>47.28009033203125</v>
@@ -1128,7 +1183,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1136,10 +1191,10 @@
         <v>2300023801030</v>
       </c>
       <c r="D37">
-        <v>26.28792953491211</v>
+        <v>26.287929534912109</v>
       </c>
       <c r="E37">
-        <v>47.27207183837891</v>
+        <v>47.272071838378913</v>
       </c>
       <c r="F37" s="2">
         <v>45446</v>
@@ -1148,7 +1203,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1156,10 +1211,10 @@
         <v>2300023801030</v>
       </c>
       <c r="D38">
-        <v>26.29771041870117</v>
+        <v>26.297710418701168</v>
       </c>
       <c r="E38">
-        <v>47.28171920776367</v>
+        <v>47.281719207763672</v>
       </c>
       <c r="F38" s="2">
         <v>45446</v>
@@ -1168,7 +1223,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1234,7 @@
         <v>26.3001708984375</v>
       </c>
       <c r="E39">
-        <v>47.28635025024414</v>
+        <v>47.286350250244141</v>
       </c>
       <c r="F39" s="2">
         <v>45446</v>
@@ -1188,7 +1243,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1263,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1216,10 +1271,10 @@
         <v>2300023801150</v>
       </c>
       <c r="D41">
-        <v>26.26021003723145</v>
+        <v>26.260210037231449</v>
       </c>
       <c r="E41">
-        <v>47.28419876098633</v>
+        <v>47.284198760986328</v>
       </c>
       <c r="F41" s="2">
         <v>45446</v>
@@ -1228,7 +1283,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1236,10 +1291,10 @@
         <v>2300023801150</v>
       </c>
       <c r="D42">
-        <v>26.27607917785645</v>
+        <v>26.276079177856449</v>
       </c>
       <c r="E42">
-        <v>47.28137969970703</v>
+        <v>47.281379699707031</v>
       </c>
       <c r="F42" s="2">
         <v>45446</v>
@@ -1248,7 +1303,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1256,10 +1311,10 @@
         <v>2300023801150</v>
       </c>
       <c r="D43">
-        <v>26.30130958557129</v>
+        <v>26.301309585571289</v>
       </c>
       <c r="E43">
-        <v>47.28627014160156</v>
+        <v>47.286270141601563</v>
       </c>
       <c r="F43" s="2">
         <v>45446</v>
@@ -1268,7 +1323,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1334,7 @@
         <v>26.2635498046875</v>
       </c>
       <c r="E44">
-        <v>47.28562164306641</v>
+        <v>47.285621643066413</v>
       </c>
       <c r="F44" s="2">
         <v>45446</v>
@@ -1288,7 +1343,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1354,7 @@
         <v>26.27858924865723</v>
       </c>
       <c r="E45">
-        <v>47.28247833251953</v>
+        <v>47.282478332519531</v>
       </c>
       <c r="F45" s="2">
         <v>45446</v>
@@ -1308,7 +1363,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1316,10 +1371,10 @@
         <v>2300023801150</v>
       </c>
       <c r="D46">
-        <v>26.27658081054688</v>
+        <v>26.276580810546879</v>
       </c>
       <c r="E46">
-        <v>47.28171157836914</v>
+        <v>47.281711578369141</v>
       </c>
       <c r="F46" s="2">
         <v>45446</v>
@@ -1328,7 +1383,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1336,10 +1391,10 @@
         <v>2300023801160</v>
       </c>
       <c r="D47">
-        <v>26.27556991577148</v>
+        <v>26.275569915771481</v>
       </c>
       <c r="E47">
-        <v>47.28162002563477</v>
+        <v>47.281620025634773</v>
       </c>
       <c r="F47" s="2">
         <v>45446</v>
@@ -1348,7 +1403,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1356,10 +1411,10 @@
         <v>2300023801160</v>
       </c>
       <c r="D48">
-        <v>26.27811050415039</v>
+        <v>26.278110504150391</v>
       </c>
       <c r="E48">
-        <v>47.28635025024414</v>
+        <v>47.286350250244141</v>
       </c>
       <c r="F48" s="2">
         <v>45446</v>
@@ -1368,7 +1423,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1376,10 +1431,10 @@
         <v>2300023801160</v>
       </c>
       <c r="D49">
-        <v>26.30019950866699</v>
+        <v>26.300199508666989</v>
       </c>
       <c r="E49">
-        <v>47.28556060791016</v>
+        <v>47.285560607910163</v>
       </c>
       <c r="F49" s="2">
         <v>45446</v>
@@ -1388,7 +1443,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1396,10 +1451,10 @@
         <v>2300023801160</v>
       </c>
       <c r="D50">
-        <v>26.30087089538574</v>
+        <v>26.300870895385739</v>
       </c>
       <c r="E50">
-        <v>47.28628921508789</v>
+        <v>47.286289215087891</v>
       </c>
       <c r="F50" s="2">
         <v>45446</v>
@@ -1408,7 +1463,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1416,10 +1471,10 @@
         <v>2300029105920</v>
       </c>
       <c r="D51">
-        <v>25.55512046813965</v>
+        <v>25.555120468139648</v>
       </c>
       <c r="E51">
-        <v>47.48431015014648</v>
+        <v>47.484310150146477</v>
       </c>
       <c r="F51" s="2">
         <v>45446</v>
@@ -1428,7 +1483,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1436,10 +1491,10 @@
         <v>2300029105920</v>
       </c>
       <c r="D52">
-        <v>25.55603981018066</v>
+        <v>25.556039810180661</v>
       </c>
       <c r="E52">
-        <v>47.48556900024414</v>
+        <v>47.485569000244141</v>
       </c>
       <c r="F52" s="2">
         <v>45446</v>
@@ -1448,7 +1503,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1456,10 +1511,10 @@
         <v>2300029105920</v>
       </c>
       <c r="D53">
-        <v>25.54738998413086</v>
+        <v>25.547389984130859</v>
       </c>
       <c r="E53">
-        <v>47.48369979858398</v>
+        <v>47.483699798583977</v>
       </c>
       <c r="F53" s="2">
         <v>45446</v>
@@ -1468,7 +1523,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1476,10 +1531,10 @@
         <v>2300030501360</v>
       </c>
       <c r="D54">
-        <v>25.73714065551758</v>
+        <v>25.737140655517582</v>
       </c>
       <c r="E54">
-        <v>47.41503143310547</v>
+        <v>47.415031433105469</v>
       </c>
       <c r="F54" s="2">
         <v>45446</v>
@@ -1488,7 +1543,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1496,7 +1551,7 @@
         <v>2300030501360</v>
       </c>
       <c r="D55">
-        <v>25.73979949951172</v>
+        <v>25.739799499511719</v>
       </c>
       <c r="E55">
         <v>47.41387939453125</v>
@@ -1508,7 +1563,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1574,7 @@
         <v>25.73621940612793</v>
       </c>
       <c r="E56">
-        <v>47.41537857055664</v>
+        <v>47.415378570556641</v>
       </c>
       <c r="F56" s="2">
         <v>45446</v>
@@ -1528,7 +1583,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1536,10 +1591,10 @@
         <v>2300030501520</v>
       </c>
       <c r="D57">
-        <v>25.82004928588867</v>
+        <v>25.820049285888668</v>
       </c>
       <c r="E57">
-        <v>47.40533828735352</v>
+        <v>47.405338287353523</v>
       </c>
       <c r="F57" s="2">
         <v>45446</v>
@@ -1548,7 +1603,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1614,7 @@
         <v>25.80974006652832</v>
       </c>
       <c r="E58">
-        <v>47.39907073974609</v>
+        <v>47.399070739746087</v>
       </c>
       <c r="F58" s="2">
         <v>45446</v>
@@ -1568,7 +1623,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1576,10 +1631,10 @@
         <v>2300030501520</v>
       </c>
       <c r="D59">
-        <v>25.81351089477539</v>
+        <v>25.813510894775391</v>
       </c>
       <c r="E59">
-        <v>47.40055847167969</v>
+        <v>47.400558471679688</v>
       </c>
       <c r="F59" s="2">
         <v>45446</v>
@@ -1588,7 +1643,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1596,10 +1651,10 @@
         <v>2300030501520</v>
       </c>
       <c r="D60">
-        <v>25.82169914245605</v>
+        <v>25.821699142456051</v>
       </c>
       <c r="E60">
-        <v>47.40264129638672</v>
+        <v>47.402641296386719</v>
       </c>
       <c r="F60" s="2">
         <v>45446</v>
@@ -1608,7 +1663,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1674,7 @@
         <v>27.63953971862793</v>
       </c>
       <c r="E61">
-        <v>46.99171829223633</v>
+        <v>46.991718292236328</v>
       </c>
       <c r="F61" s="2">
         <v>45446</v>
@@ -1628,7 +1683,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1636,10 +1691,10 @@
         <v>2300106600760</v>
       </c>
       <c r="D62">
-        <v>27.64790916442871</v>
+        <v>27.647909164428711</v>
       </c>
       <c r="E62">
-        <v>46.99073028564453</v>
+        <v>46.990730285644531</v>
       </c>
       <c r="F62" s="2">
         <v>45446</v>
@@ -1648,7 +1703,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1714,7 @@
         <v>26.46381950378418</v>
       </c>
       <c r="E63">
-        <v>45.79227828979492</v>
+        <v>45.792278289794922</v>
       </c>
       <c r="F63" s="2">
         <v>45446</v>
@@ -1668,7 +1723,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1676,10 +1731,10 @@
         <v>2300121902980</v>
       </c>
       <c r="D64">
-        <v>26.46290969848633</v>
+        <v>26.462909698486332</v>
       </c>
       <c r="E64">
-        <v>45.79286956787109</v>
+        <v>45.792869567871087</v>
       </c>
       <c r="F64" s="2">
         <v>45446</v>
@@ -1688,7 +1743,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1708,7 +1763,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1716,10 +1771,10 @@
         <v>2300125301190</v>
       </c>
       <c r="D66">
-        <v>25.90204048156738</v>
+        <v>25.902040481567379</v>
       </c>
       <c r="E66">
-        <v>47.09725952148438</v>
+        <v>47.097259521484382</v>
       </c>
       <c r="F66" s="2">
         <v>45446</v>
@@ -1728,7 +1783,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1794,7 @@
         <v>25.91012001037598</v>
       </c>
       <c r="E67">
-        <v>47.09820175170898</v>
+        <v>47.098201751708977</v>
       </c>
       <c r="F67" s="2">
         <v>45446</v>
@@ -1748,7 +1803,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1756,10 +1811,10 @@
         <v>2300128902410</v>
       </c>
       <c r="D68">
-        <v>23.32645034790039</v>
+        <v>23.326450347900391</v>
       </c>
       <c r="E68">
-        <v>45.60863876342773</v>
+        <v>45.608638763427727</v>
       </c>
       <c r="F68" s="2">
         <v>45446</v>
@@ -1768,7 +1823,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1776,10 +1831,10 @@
         <v>2300128902410</v>
       </c>
       <c r="D69">
-        <v>23.35840034484863</v>
+        <v>23.358400344848629</v>
       </c>
       <c r="E69">
-        <v>45.62981033325195</v>
+        <v>45.629810333251953</v>
       </c>
       <c r="F69" s="2">
         <v>45446</v>
@@ -1788,7 +1843,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1796,10 +1851,10 @@
         <v>2300128902410</v>
       </c>
       <c r="D70">
-        <v>23.35279083251953</v>
+        <v>23.352790832519531</v>
       </c>
       <c r="E70">
-        <v>45.62022018432617</v>
+        <v>45.620220184326172</v>
       </c>
       <c r="F70" s="2">
         <v>45446</v>
@@ -1808,7 +1863,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1816,10 +1871,10 @@
         <v>2300130701020</v>
       </c>
       <c r="D71">
-        <v>25.36520004272461</v>
+        <v>25.365200042724609</v>
       </c>
       <c r="E71">
-        <v>47.12287902832031</v>
+        <v>47.122879028320313</v>
       </c>
       <c r="F71" s="2">
         <v>45446</v>
@@ -1828,7 +1883,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1836,10 +1891,10 @@
         <v>2300130701020</v>
       </c>
       <c r="D72">
-        <v>25.42424011230469</v>
+        <v>25.424240112304691</v>
       </c>
       <c r="E72">
-        <v>47.15208053588867</v>
+        <v>47.152080535888672</v>
       </c>
       <c r="F72" s="2">
         <v>45446</v>
@@ -1848,7 +1903,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1856,10 +1911,10 @@
         <v>2300133602610</v>
       </c>
       <c r="D73">
-        <v>25.78935050964355</v>
+        <v>25.789350509643551</v>
       </c>
       <c r="E73">
-        <v>46.98920822143555</v>
+        <v>46.989208221435547</v>
       </c>
       <c r="F73" s="2">
         <v>45446</v>
@@ -1868,7 +1923,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -1876,7 +1931,7 @@
         <v>2300133602610</v>
       </c>
       <c r="D74">
-        <v>25.77934074401855</v>
+        <v>25.779340744018551</v>
       </c>
       <c r="E74">
         <v>46.99169921875</v>
@@ -1888,7 +1943,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1896,10 +1951,10 @@
         <v>2300133602920</v>
       </c>
       <c r="D75">
-        <v>25.64530944824219</v>
+        <v>25.645309448242191</v>
       </c>
       <c r="E75">
-        <v>46.91551971435547</v>
+        <v>46.915519714355469</v>
       </c>
       <c r="F75" s="2">
         <v>45446</v>
@@ -1908,7 +1963,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1916,10 +1971,10 @@
         <v>2300140804660</v>
       </c>
       <c r="D76">
-        <v>22.95969009399414</v>
+        <v>22.959690093994141</v>
       </c>
       <c r="E76">
-        <v>45.45743942260742</v>
+        <v>45.457439422607422</v>
       </c>
       <c r="F76" s="2">
         <v>45446</v>
@@ -1928,7 +1983,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1936,10 +1991,10 @@
         <v>2300141801640</v>
       </c>
       <c r="D77">
-        <v>22.44195938110352</v>
+        <v>22.441959381103519</v>
       </c>
       <c r="E77">
-        <v>45.68780136108398</v>
+        <v>45.687801361083977</v>
       </c>
       <c r="F77" s="2">
         <v>45446</v>
@@ -1948,7 +2003,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -1956,10 +2011,10 @@
         <v>2300141801640</v>
       </c>
       <c r="D78">
-        <v>22.40361976623535</v>
+        <v>22.403619766235352</v>
       </c>
       <c r="E78">
-        <v>45.69915008544922</v>
+        <v>45.699150085449219</v>
       </c>
       <c r="F78" s="2">
         <v>45446</v>
@@ -1968,7 +2023,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1976,10 +2031,10 @@
         <v>2300151301150</v>
       </c>
       <c r="D79">
-        <v>25.77099990844727</v>
+        <v>25.770999908447269</v>
       </c>
       <c r="E79">
-        <v>47.33317947387695</v>
+        <v>47.333179473876953</v>
       </c>
       <c r="F79" s="2">
         <v>45446</v>
@@ -1988,7 +2043,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -1996,10 +2051,10 @@
         <v>2300157301300</v>
       </c>
       <c r="D80">
-        <v>24.98634910583496</v>
+        <v>24.986349105834961</v>
       </c>
       <c r="E80">
-        <v>47.08572006225586</v>
+        <v>47.085720062255859</v>
       </c>
       <c r="F80" s="2">
         <v>45446</v>
@@ -2008,7 +2063,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2016,10 +2071,10 @@
         <v>2300157301300</v>
       </c>
       <c r="D81">
-        <v>24.98564910888672</v>
+        <v>24.985649108886719</v>
       </c>
       <c r="E81">
-        <v>47.09117889404297</v>
+        <v>47.091178894042969</v>
       </c>
       <c r="F81" s="2">
         <v>45446</v>
@@ -2028,7 +2083,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2036,10 +2091,10 @@
         <v>2300179103100</v>
       </c>
       <c r="D82">
-        <v>24.61628913879395</v>
+        <v>24.616289138793949</v>
       </c>
       <c r="E82">
-        <v>45.04912185668945</v>
+        <v>45.049121856689453</v>
       </c>
       <c r="F82" s="2">
         <v>45446</v>
@@ -2048,7 +2103,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2056,10 +2111,10 @@
         <v>2300179103100</v>
       </c>
       <c r="D83">
-        <v>24.60490036010742</v>
+        <v>24.604900360107418</v>
       </c>
       <c r="E83">
-        <v>45.06798934936523</v>
+        <v>45.067989349365227</v>
       </c>
       <c r="F83" s="2">
         <v>45446</v>
@@ -2068,7 +2123,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2076,10 +2131,10 @@
         <v>2300179103100</v>
       </c>
       <c r="D84">
-        <v>24.60924911499023</v>
+        <v>24.609249114990231</v>
       </c>
       <c r="E84">
-        <v>45.06214904785156</v>
+        <v>45.062149047851563</v>
       </c>
       <c r="F84" s="2">
         <v>45446</v>
@@ -2088,7 +2143,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2099,7 +2154,7 @@
         <v>24.87849044799805</v>
       </c>
       <c r="E85">
-        <v>45.51425933837891</v>
+        <v>45.514259338378913</v>
       </c>
       <c r="F85" s="2">
         <v>45446</v>
@@ -2108,7 +2163,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2119,7 +2174,7 @@
         <v>26.3584098815918</v>
       </c>
       <c r="E86">
-        <v>45.58108139038086</v>
+        <v>45.581081390380859</v>
       </c>
       <c r="F86" s="2">
         <v>45446</v>
@@ -2128,7 +2183,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2139,7 +2194,7 @@
         <v>26.38274002075195</v>
       </c>
       <c r="E87">
-        <v>45.61865997314453</v>
+        <v>45.618659973144531</v>
       </c>
       <c r="F87" s="2">
         <v>45446</v>
@@ -2148,7 +2203,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2159,7 +2214,7 @@
         <v>26.60238075256348</v>
       </c>
       <c r="E88">
-        <v>45.49478912353516</v>
+        <v>45.494789123535163</v>
       </c>
       <c r="F88" s="2">
         <v>45446</v>
@@ -2168,7 +2223,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2176,10 +2231,10 @@
         <v>2300207104490</v>
       </c>
       <c r="D89">
-        <v>26.60022926330566</v>
+        <v>26.600229263305661</v>
       </c>
       <c r="E89">
-        <v>45.50371170043945</v>
+        <v>45.503711700439453</v>
       </c>
       <c r="F89" s="2">
         <v>45446</v>
@@ -2188,7 +2243,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2196,10 +2251,10 @@
         <v>2301952400510</v>
       </c>
       <c r="D90">
-        <v>25.78071022033691</v>
+        <v>25.780710220336911</v>
       </c>
       <c r="E90">
-        <v>47.05765914916992</v>
+        <v>47.057659149169922</v>
       </c>
       <c r="F90" s="2">
         <v>45446</v>
@@ -2208,7 +2263,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2274,7 @@
         <v>25.77239990234375</v>
       </c>
       <c r="E91">
-        <v>47.04684066772461</v>
+        <v>47.046840667724609</v>
       </c>
       <c r="F91" s="2">
         <v>45446</v>
@@ -2228,7 +2283,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2236,10 +2291,10 @@
         <v>2400005500200</v>
       </c>
       <c r="D92">
-        <v>26.16822052001953</v>
+        <v>26.168220520019531</v>
       </c>
       <c r="E92">
-        <v>46.38370895385742</v>
+        <v>46.383708953857422</v>
       </c>
       <c r="F92" s="2">
         <v>45446</v>
@@ -2248,7 +2303,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2256,10 +2311,10 @@
         <v>2400005600570</v>
       </c>
       <c r="D93">
-        <v>26.22456932067871</v>
+        <v>26.224569320678711</v>
       </c>
       <c r="E93">
-        <v>46.59997940063477</v>
+        <v>46.599979400634773</v>
       </c>
       <c r="F93" s="2">
         <v>45446</v>
@@ -2268,7 +2323,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2276,10 +2331,10 @@
         <v>2400005800090</v>
       </c>
       <c r="D94">
-        <v>26.8056697845459</v>
+        <v>26.805669784545898</v>
       </c>
       <c r="E94">
-        <v>46.59402847290039</v>
+        <v>46.594028472900391</v>
       </c>
       <c r="F94" s="2">
         <v>45446</v>
@@ -2288,7 +2343,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2299,7 +2354,7 @@
         <v>26.80464935302734</v>
       </c>
       <c r="E95">
-        <v>46.59571838378906</v>
+        <v>46.595718383789063</v>
       </c>
       <c r="F95" s="2">
         <v>45446</v>
@@ -2308,7 +2363,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2316,10 +2371,10 @@
         <v>2400006400510</v>
       </c>
       <c r="D96">
-        <v>26.26280975341797</v>
+        <v>26.262809753417969</v>
       </c>
       <c r="E96">
-        <v>45.52093887329102</v>
+        <v>45.520938873291023</v>
       </c>
       <c r="F96" s="2">
         <v>45446</v>
@@ -2328,7 +2383,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2336,10 +2391,10 @@
         <v>2400006400510</v>
       </c>
       <c r="D97">
-        <v>26.25378036499023</v>
+        <v>26.253780364990231</v>
       </c>
       <c r="E97">
-        <v>45.51877975463867</v>
+        <v>45.518779754638672</v>
       </c>
       <c r="F97" s="2">
         <v>45446</v>
@@ -2348,7 +2403,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2356,10 +2411,10 @@
         <v>2400006400510</v>
       </c>
       <c r="D98">
-        <v>26.24859046936035</v>
+        <v>26.248590469360352</v>
       </c>
       <c r="E98">
-        <v>45.51642990112305</v>
+        <v>45.516429901123047</v>
       </c>
       <c r="F98" s="2">
         <v>45446</v>
@@ -2368,7 +2423,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -2376,10 +2431,10 @@
         <v>2400006400510</v>
       </c>
       <c r="D99">
-        <v>26.26285934448242</v>
+        <v>26.262859344482418</v>
       </c>
       <c r="E99">
-        <v>45.52090835571289</v>
+        <v>45.520908355712891</v>
       </c>
       <c r="F99" s="2">
         <v>45446</v>
@@ -2388,7 +2443,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -2396,10 +2451,10 @@
         <v>2400009802530</v>
       </c>
       <c r="D100">
-        <v>25.74898910522461</v>
+        <v>25.748989105224609</v>
       </c>
       <c r="E100">
-        <v>45.34511947631836</v>
+        <v>45.345119476318359</v>
       </c>
       <c r="F100" s="2">
         <v>45446</v>
@@ -2408,7 +2463,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -2416,10 +2471,10 @@
         <v>2400010501310</v>
       </c>
       <c r="D101">
-        <v>25.37785911560059</v>
+        <v>25.377859115600589</v>
       </c>
       <c r="E101">
-        <v>45.37479019165039</v>
+        <v>45.374790191650391</v>
       </c>
       <c r="F101" s="2">
         <v>45446</v>
@@ -2428,7 +2483,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -2436,10 +2491,10 @@
         <v>2400019601750</v>
       </c>
       <c r="D102">
-        <v>26.10183906555176</v>
+        <v>26.101839065551761</v>
       </c>
       <c r="E102">
-        <v>46.98908996582031</v>
+        <v>46.989089965820313</v>
       </c>
       <c r="F102" s="2">
         <v>45446</v>
@@ -2448,7 +2503,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -2456,10 +2511,10 @@
         <v>2400019601750</v>
       </c>
       <c r="D103">
-        <v>26.09963035583496</v>
+        <v>26.099630355834961</v>
       </c>
       <c r="E103">
-        <v>46.98069000244141</v>
+        <v>46.980690002441413</v>
       </c>
       <c r="F103" s="2">
         <v>45446</v>
@@ -2468,7 +2523,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -2476,10 +2531,10 @@
         <v>2400019601760</v>
       </c>
       <c r="D104">
-        <v>26.11664009094238</v>
+        <v>26.116640090942379</v>
       </c>
       <c r="E104">
-        <v>46.96018981933594</v>
+        <v>46.960189819335938</v>
       </c>
       <c r="F104" s="2">
         <v>45446</v>
@@ -2488,7 +2543,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2496,10 +2551,10 @@
         <v>2400019601760</v>
       </c>
       <c r="D105">
-        <v>26.11750984191895</v>
+        <v>26.117509841918949</v>
       </c>
       <c r="E105">
-        <v>46.96033096313477</v>
+        <v>46.960330963134773</v>
       </c>
       <c r="F105" s="2">
         <v>45446</v>
@@ -2508,7 +2563,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -2519,7 +2574,7 @@
         <v>26.1085205078125</v>
       </c>
       <c r="E106">
-        <v>46.97507858276367</v>
+        <v>46.975078582763672</v>
       </c>
       <c r="F106" s="2">
         <v>45446</v>
@@ -2528,7 +2583,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2536,10 +2591,10 @@
         <v>2400019601770</v>
       </c>
       <c r="D107">
-        <v>26.12088012695312</v>
+        <v>26.120880126953121</v>
       </c>
       <c r="E107">
-        <v>46.99063110351562</v>
+        <v>46.990631103515618</v>
       </c>
       <c r="F107" s="2">
         <v>45446</v>
@@ -2548,7 +2603,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -2556,10 +2611,10 @@
         <v>2400019601780</v>
       </c>
       <c r="D108">
-        <v>26.12626075744629</v>
+        <v>26.126260757446289</v>
       </c>
       <c r="E108">
-        <v>46.94025039672852</v>
+        <v>46.940250396728523</v>
       </c>
       <c r="F108" s="2">
         <v>45446</v>
@@ -2568,7 +2623,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -2576,10 +2631,10 @@
         <v>2400019601780</v>
       </c>
       <c r="D109">
-        <v>26.12697982788086</v>
+        <v>26.126979827880859</v>
       </c>
       <c r="E109">
-        <v>46.9397087097168</v>
+        <v>46.939708709716797</v>
       </c>
       <c r="F109" s="2">
         <v>45446</v>
@@ -2588,7 +2643,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2596,10 +2651,10 @@
         <v>2400019601780</v>
       </c>
       <c r="D110">
-        <v>26.13109970092773</v>
+        <v>26.131099700927731</v>
       </c>
       <c r="E110">
-        <v>46.94726181030273</v>
+        <v>46.947261810302727</v>
       </c>
       <c r="F110" s="2">
         <v>45446</v>
@@ -2608,7 +2663,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2616,10 +2671,10 @@
         <v>2400019601790</v>
       </c>
       <c r="D111">
-        <v>26.10193061828613</v>
+        <v>26.101930618286129</v>
       </c>
       <c r="E111">
-        <v>46.98904037475586</v>
+        <v>46.989040374755859</v>
       </c>
       <c r="F111" s="2">
         <v>45446</v>
@@ -2628,7 +2683,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2636,10 +2691,10 @@
         <v>2400019601790</v>
       </c>
       <c r="D112">
-        <v>26.09963989257812</v>
+        <v>26.099639892578121</v>
       </c>
       <c r="E112">
-        <v>46.98078155517578</v>
+        <v>46.980781555175781</v>
       </c>
       <c r="F112" s="2">
         <v>45446</v>
@@ -2648,7 +2703,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2656,10 +2711,10 @@
         <v>2400019601800</v>
       </c>
       <c r="D113">
-        <v>26.12623023986816</v>
+        <v>26.126230239868161</v>
       </c>
       <c r="E113">
-        <v>46.95042037963867</v>
+        <v>46.950420379638672</v>
       </c>
       <c r="F113" s="2">
         <v>45446</v>
@@ -2668,7 +2723,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -2676,10 +2731,10 @@
         <v>2400019601860</v>
       </c>
       <c r="D114">
-        <v>26.10190010070801</v>
+        <v>26.101900100708011</v>
       </c>
       <c r="E114">
-        <v>46.98905944824219</v>
+        <v>46.989059448242188</v>
       </c>
       <c r="F114" s="2">
         <v>45446</v>
@@ -2688,7 +2743,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -2699,7 +2754,7 @@
         <v>26.09955978393555</v>
       </c>
       <c r="E115">
-        <v>46.98081970214844</v>
+        <v>46.980819702148438</v>
       </c>
       <c r="F115" s="2">
         <v>45446</v>
@@ -2708,7 +2763,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2716,10 +2771,10 @@
         <v>2400019602740</v>
       </c>
       <c r="D116">
-        <v>25.34634017944336</v>
+        <v>25.346340179443359</v>
       </c>
       <c r="E116">
-        <v>47.46004104614258</v>
+        <v>47.460041046142578</v>
       </c>
       <c r="F116" s="2">
         <v>45446</v>
@@ -2728,7 +2783,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2736,10 +2791,10 @@
         <v>2400019602740</v>
       </c>
       <c r="D117">
-        <v>25.34823989868164</v>
+        <v>25.348239898681641</v>
       </c>
       <c r="E117">
-        <v>47.45817947387695</v>
+        <v>47.458179473876953</v>
       </c>
       <c r="F117" s="2">
         <v>45446</v>
@@ -2748,7 +2803,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -2756,10 +2811,10 @@
         <v>2400019602750</v>
       </c>
       <c r="D118">
-        <v>25.34823989868164</v>
+        <v>25.348239898681641</v>
       </c>
       <c r="E118">
-        <v>47.45817947387695</v>
+        <v>47.458179473876953</v>
       </c>
       <c r="F118" s="2">
         <v>45446</v>
@@ -2768,7 +2823,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2776,7 +2831,7 @@
         <v>2400019603650</v>
       </c>
       <c r="D119">
-        <v>25.19189071655273</v>
+        <v>25.191890716552731</v>
       </c>
       <c r="E119">
         <v>47.2564697265625</v>
@@ -2788,7 +2843,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -2799,7 +2854,7 @@
         <v>25.17666053771973</v>
       </c>
       <c r="E120">
-        <v>47.26496124267578</v>
+        <v>47.264961242675781</v>
       </c>
       <c r="F120" s="2">
         <v>45446</v>
@@ -2808,7 +2863,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -2816,10 +2871,10 @@
         <v>2400029400020</v>
       </c>
       <c r="D121">
-        <v>25.54947090148926</v>
+        <v>25.549470901489261</v>
       </c>
       <c r="E121">
-        <v>47.20944976806641</v>
+        <v>47.209449768066413</v>
       </c>
       <c r="F121" s="2">
         <v>45446</v>
@@ -2828,7 +2883,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -2836,10 +2891,10 @@
         <v>2400029400020</v>
       </c>
       <c r="D122">
-        <v>25.54858016967773</v>
+        <v>25.548580169677731</v>
       </c>
       <c r="E122">
-        <v>47.21147155761719</v>
+        <v>47.211471557617188</v>
       </c>
       <c r="F122" s="2">
         <v>45446</v>
@@ -2848,7 +2903,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -2856,10 +2911,10 @@
         <v>2400029400020</v>
       </c>
       <c r="D123">
-        <v>25.55554962158203</v>
+        <v>25.555549621582031</v>
       </c>
       <c r="E123">
-        <v>47.19522094726562</v>
+        <v>47.195220947265618</v>
       </c>
       <c r="F123" s="2">
         <v>45446</v>
@@ -2868,7 +2923,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -2879,7 +2934,7 @@
         <v>25.14484977722168</v>
       </c>
       <c r="E124">
-        <v>47.73265838623047</v>
+        <v>47.732658386230469</v>
       </c>
       <c r="F124" s="2">
         <v>45446</v>
@@ -2888,7 +2943,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -2896,10 +2951,10 @@
         <v>2400030301070</v>
       </c>
       <c r="D125">
-        <v>25.13254928588867</v>
+        <v>25.132549285888668</v>
       </c>
       <c r="E125">
-        <v>47.72642135620117</v>
+        <v>47.726421356201172</v>
       </c>
       <c r="F125" s="2">
         <v>45446</v>
@@ -2908,7 +2963,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -2916,10 +2971,10 @@
         <v>2400034000530</v>
       </c>
       <c r="D126">
-        <v>25.80187034606934</v>
+        <v>25.801870346069339</v>
       </c>
       <c r="E126">
-        <v>45.38103103637695</v>
+        <v>45.381031036376953</v>
       </c>
       <c r="F126" s="2">
         <v>45446</v>
@@ -2928,7 +2983,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -2936,10 +2991,10 @@
         <v>2400034000530</v>
       </c>
       <c r="D127">
-        <v>25.80802917480469</v>
+        <v>25.808029174804691</v>
       </c>
       <c r="E127">
-        <v>45.37636184692383</v>
+        <v>45.376361846923828</v>
       </c>
       <c r="F127" s="2">
         <v>45446</v>
@@ -2948,7 +3003,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -2956,10 +3011,10 @@
         <v>2400096000200</v>
       </c>
       <c r="D128">
-        <v>25.60310935974121</v>
+        <v>25.603109359741211</v>
       </c>
       <c r="E128">
-        <v>47.64509963989258</v>
+        <v>47.645099639892578</v>
       </c>
       <c r="F128" s="2">
         <v>45446</v>
@@ -2968,7 +3023,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2979,7 +3034,7 @@
         <v>25.60623931884766</v>
       </c>
       <c r="E129">
-        <v>47.64760971069336</v>
+        <v>47.647609710693359</v>
       </c>
       <c r="F129" s="2">
         <v>45446</v>
@@ -2988,7 +3043,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -2996,10 +3051,10 @@
         <v>2400096000200</v>
       </c>
       <c r="D130">
-        <v>25.6086597442627</v>
+        <v>25.608659744262699</v>
       </c>
       <c r="E130">
-        <v>47.64849090576172</v>
+        <v>47.648490905761719</v>
       </c>
       <c r="F130" s="2">
         <v>45446</v>
@@ -3008,7 +3063,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +3074,7 @@
         <v>25.59922981262207</v>
       </c>
       <c r="E131">
-        <v>47.6432991027832</v>
+        <v>47.643299102783203</v>
       </c>
       <c r="F131" s="2">
         <v>45446</v>
@@ -3028,7 +3083,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3036,10 +3091,10 @@
         <v>2400117600750</v>
       </c>
       <c r="D132">
-        <v>26.72825050354004</v>
+        <v>26.728250503540039</v>
       </c>
       <c r="E132">
-        <v>45.68732833862305</v>
+        <v>45.687328338623047</v>
       </c>
       <c r="F132" s="2">
         <v>45446</v>
@@ -3048,7 +3103,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3056,10 +3111,10 @@
         <v>2400117600750</v>
       </c>
       <c r="D133">
-        <v>26.73578071594238</v>
+        <v>26.735780715942379</v>
       </c>
       <c r="E133">
-        <v>45.70129013061523</v>
+        <v>45.701290130615227</v>
       </c>
       <c r="F133" s="2">
         <v>45446</v>
@@ -3068,7 +3123,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3076,10 +3131,10 @@
         <v>2400117600750</v>
       </c>
       <c r="D134">
-        <v>26.71915054321289</v>
+        <v>26.719150543212891</v>
       </c>
       <c r="E134">
-        <v>45.70946884155273</v>
+        <v>45.709468841552727</v>
       </c>
       <c r="F134" s="2">
         <v>45446</v>
@@ -3088,7 +3143,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3096,10 +3151,10 @@
         <v>2400120002680</v>
       </c>
       <c r="D135">
-        <v>25.39854049682617</v>
+        <v>25.398540496826168</v>
       </c>
       <c r="E135">
-        <v>47.05643844604492</v>
+        <v>47.056438446044922</v>
       </c>
       <c r="F135" s="2">
         <v>45446</v>
@@ -3108,7 +3163,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -3116,10 +3171,10 @@
         <v>2400120200760</v>
       </c>
       <c r="D136">
-        <v>26.43655014038086</v>
+        <v>26.436550140380859</v>
       </c>
       <c r="E136">
-        <v>45.88425064086914</v>
+        <v>45.884250640869141</v>
       </c>
       <c r="F136" s="2">
         <v>45446</v>
@@ -3128,7 +3183,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3136,10 +3191,10 @@
         <v>2400121900480</v>
       </c>
       <c r="D137">
-        <v>26.49600028991699</v>
+        <v>26.496000289916989</v>
       </c>
       <c r="E137">
-        <v>45.77040863037109</v>
+        <v>45.770408630371087</v>
       </c>
       <c r="F137" s="2">
         <v>45446</v>
@@ -3148,7 +3203,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3156,10 +3211,10 @@
         <v>2400121900480</v>
       </c>
       <c r="D138">
-        <v>26.48934936523438</v>
+        <v>26.489349365234379</v>
       </c>
       <c r="E138">
-        <v>45.77396011352539</v>
+        <v>45.773960113525391</v>
       </c>
       <c r="F138" s="2">
         <v>45446</v>
@@ -3168,7 +3223,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -3179,7 +3234,7 @@
         <v>26.43032073974609</v>
       </c>
       <c r="E139">
-        <v>45.78211975097656</v>
+        <v>45.782119750976563</v>
       </c>
       <c r="F139" s="2">
         <v>45446</v>
@@ -3188,7 +3243,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -3199,7 +3254,7 @@
         <v>26.67487907409668</v>
       </c>
       <c r="E140">
-        <v>46.06008911132812</v>
+        <v>46.060089111328118</v>
       </c>
       <c r="F140" s="2">
         <v>45446</v>
@@ -3208,7 +3263,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3216,10 +3271,10 @@
         <v>2400127000700</v>
       </c>
       <c r="D141">
-        <v>26.71487045288086</v>
+        <v>26.714870452880859</v>
       </c>
       <c r="E141">
-        <v>46.05739974975586</v>
+        <v>46.057399749755859</v>
       </c>
       <c r="F141" s="2">
         <v>45446</v>
@@ -3228,7 +3283,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3239,7 +3294,7 @@
         <v>26.67255973815918</v>
       </c>
       <c r="E142">
-        <v>46.06348037719727</v>
+        <v>46.063480377197273</v>
       </c>
       <c r="F142" s="2">
         <v>45446</v>
@@ -3248,7 +3303,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3256,10 +3311,10 @@
         <v>2400127000710</v>
       </c>
       <c r="D143">
-        <v>26.67281913757324</v>
+        <v>26.672819137573239</v>
       </c>
       <c r="E143">
-        <v>46.06193161010742</v>
+        <v>46.061931610107422</v>
       </c>
       <c r="F143" s="2">
         <v>45446</v>
@@ -3268,7 +3323,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3276,10 +3331,10 @@
         <v>2400127000710</v>
       </c>
       <c r="D144">
-        <v>26.7148609161377</v>
+        <v>26.714860916137699</v>
       </c>
       <c r="E144">
-        <v>46.0573616027832</v>
+        <v>46.057361602783203</v>
       </c>
       <c r="F144" s="2">
         <v>45446</v>
@@ -3288,7 +3343,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3299,7 +3354,7 @@
         <v>26.67522048950195</v>
       </c>
       <c r="E145">
-        <v>46.06076049804688</v>
+        <v>46.060760498046882</v>
       </c>
       <c r="F145" s="2">
         <v>45446</v>
@@ -3308,7 +3363,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3316,10 +3371,10 @@
         <v>2400130700230</v>
       </c>
       <c r="D146">
-        <v>25.68818092346191</v>
+        <v>25.688180923461911</v>
       </c>
       <c r="E146">
-        <v>47.06716156005859</v>
+        <v>47.067161560058587</v>
       </c>
       <c r="F146" s="2">
         <v>45446</v>
@@ -3328,7 +3383,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3339,7 +3394,7 @@
         <v>25.6898193359375</v>
       </c>
       <c r="E147">
-        <v>47.06998062133789</v>
+        <v>47.069980621337891</v>
       </c>
       <c r="F147" s="2">
         <v>45446</v>
@@ -3348,7 +3403,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3356,10 +3411,10 @@
         <v>2400130700230</v>
       </c>
       <c r="D148">
-        <v>25.68630027770996</v>
+        <v>25.686300277709961</v>
       </c>
       <c r="E148">
-        <v>47.06401062011719</v>
+        <v>47.064010620117188</v>
       </c>
       <c r="F148" s="2">
         <v>45446</v>
@@ -3368,7 +3423,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3379,7 +3434,7 @@
         <v>25.6886100769043</v>
       </c>
       <c r="E149">
-        <v>47.07419967651367</v>
+        <v>47.074199676513672</v>
       </c>
       <c r="F149" s="2">
         <v>45446</v>
@@ -3388,7 +3443,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -3399,7 +3454,7 @@
         <v>25.68341064453125</v>
       </c>
       <c r="E150">
-        <v>47.06084823608398</v>
+        <v>47.060848236083977</v>
       </c>
       <c r="F150" s="2">
         <v>45446</v>
@@ -3408,7 +3463,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3416,10 +3471,10 @@
         <v>2400131800220</v>
       </c>
       <c r="D151">
-        <v>23.90674018859863</v>
+        <v>23.906740188598629</v>
       </c>
       <c r="E151">
-        <v>45.67168045043945</v>
+        <v>45.671680450439453</v>
       </c>
       <c r="F151" s="2">
         <v>45446</v>
@@ -3428,7 +3483,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -3436,10 +3491,10 @@
         <v>2400131800250</v>
       </c>
       <c r="D152">
-        <v>23.90674018859863</v>
+        <v>23.906740188598629</v>
       </c>
       <c r="E152">
-        <v>45.67168045043945</v>
+        <v>45.671680450439453</v>
       </c>
       <c r="F152" s="2">
         <v>45446</v>
@@ -3448,7 +3503,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -3468,7 +3523,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -3476,10 +3531,10 @@
         <v>2400133301230</v>
       </c>
       <c r="D154">
-        <v>24.4482593536377</v>
+        <v>24.448259353637699</v>
       </c>
       <c r="E154">
-        <v>47.5855598449707</v>
+        <v>47.585559844970703</v>
       </c>
       <c r="F154" s="2">
         <v>45446</v>
@@ -3488,7 +3543,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3496,7 +3551,7 @@
         <v>2400133600680</v>
       </c>
       <c r="D155">
-        <v>25.77934074401855</v>
+        <v>25.779340744018551</v>
       </c>
       <c r="E155">
         <v>46.99169921875</v>
@@ -3508,7 +3563,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -3528,7 +3583,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -3536,10 +3591,10 @@
         <v>2400133600850</v>
       </c>
       <c r="D157">
-        <v>25.71351051330566</v>
+        <v>25.713510513305661</v>
       </c>
       <c r="E157">
-        <v>46.81818008422852</v>
+        <v>46.818180084228523</v>
       </c>
       <c r="F157" s="2">
         <v>45446</v>
@@ -3548,7 +3603,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -3556,10 +3611,10 @@
         <v>2400134200160</v>
       </c>
       <c r="D158">
-        <v>22.45800971984863</v>
+        <v>22.458009719848629</v>
       </c>
       <c r="E158">
-        <v>45.33084106445312</v>
+        <v>45.330841064453118</v>
       </c>
       <c r="F158" s="2">
         <v>45446</v>
@@ -3568,7 +3623,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -3576,10 +3631,10 @@
         <v>2400138902460</v>
       </c>
       <c r="D159">
-        <v>26.3582706451416</v>
+        <v>26.358270645141602</v>
       </c>
       <c r="E159">
-        <v>45.90594863891602</v>
+        <v>45.905948638916023</v>
       </c>
       <c r="F159" s="2">
         <v>45446</v>
@@ -3588,7 +3643,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -3596,7 +3651,7 @@
         <v>2400139402430</v>
       </c>
       <c r="D160">
-        <v>25.66507911682129</v>
+        <v>25.665079116821289</v>
       </c>
       <c r="E160">
         <v>46.4273681640625</v>
@@ -3608,7 +3663,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3616,10 +3671,10 @@
         <v>2400139800200</v>
       </c>
       <c r="D161">
-        <v>22.24117088317871</v>
+        <v>22.241170883178711</v>
       </c>
       <c r="E161">
-        <v>45.62075042724609</v>
+        <v>45.620750427246087</v>
       </c>
       <c r="F161" s="2">
         <v>45446</v>
@@ -3628,7 +3683,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -3636,10 +3691,10 @@
         <v>2400139800200</v>
       </c>
       <c r="D162">
-        <v>22.24107933044434</v>
+        <v>22.241079330444339</v>
       </c>
       <c r="E162">
-        <v>45.6207389831543</v>
+        <v>45.620738983154297</v>
       </c>
       <c r="F162" s="2">
         <v>45446</v>
@@ -3648,7 +3703,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -3656,10 +3711,10 @@
         <v>2400139800200</v>
       </c>
       <c r="D163">
-        <v>22.23839950561523</v>
+        <v>22.238399505615231</v>
       </c>
       <c r="E163">
-        <v>45.62005996704102</v>
+        <v>45.620059967041023</v>
       </c>
       <c r="F163" s="2">
         <v>45446</v>
@@ -3668,7 +3723,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -3676,10 +3731,10 @@
         <v>2400140800790</v>
       </c>
       <c r="D164">
-        <v>22.98406028747559</v>
+        <v>22.984060287475589</v>
       </c>
       <c r="E164">
-        <v>45.45650863647461</v>
+        <v>45.456508636474609</v>
       </c>
       <c r="F164" s="2">
         <v>45446</v>
@@ -3688,7 +3743,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -3696,10 +3751,10 @@
         <v>2400142200180</v>
       </c>
       <c r="D165">
-        <v>22.40899085998535</v>
+        <v>22.408990859985352</v>
       </c>
       <c r="E165">
-        <v>46.54280853271484</v>
+        <v>46.542808532714837</v>
       </c>
       <c r="F165" s="2">
         <v>45446</v>
@@ -3708,7 +3763,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3719,7 +3774,7 @@
         <v>22.39468955993652</v>
       </c>
       <c r="E166">
-        <v>46.56124877929688</v>
+        <v>46.561248779296882</v>
       </c>
       <c r="F166" s="2">
         <v>45446</v>
@@ -3728,7 +3783,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3736,10 +3791,10 @@
         <v>2400142200180</v>
       </c>
       <c r="D167">
-        <v>22.39849090576172</v>
+        <v>22.398490905761719</v>
       </c>
       <c r="E167">
-        <v>46.53184127807617</v>
+        <v>46.531841278076172</v>
       </c>
       <c r="F167" s="2">
         <v>45446</v>
@@ -3748,7 +3803,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -3756,10 +3811,10 @@
         <v>2400142200180</v>
       </c>
       <c r="D168">
-        <v>22.41687965393066</v>
+        <v>22.416879653930661</v>
       </c>
       <c r="E168">
-        <v>46.55307006835938</v>
+        <v>46.553070068359382</v>
       </c>
       <c r="F168" s="2">
         <v>45446</v>
@@ -3768,7 +3823,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -3779,7 +3834,7 @@
         <v>25.89508056640625</v>
       </c>
       <c r="E169">
-        <v>46.46400833129883</v>
+        <v>46.464008331298828</v>
       </c>
       <c r="F169" s="2">
         <v>45446</v>
@@ -3788,7 +3843,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -3796,10 +3851,10 @@
         <v>2400142401750</v>
       </c>
       <c r="D170">
-        <v>25.89438056945801</v>
+        <v>25.894380569458011</v>
       </c>
       <c r="E170">
-        <v>46.46353149414062</v>
+        <v>46.463531494140618</v>
       </c>
       <c r="F170" s="2">
         <v>45446</v>
@@ -3808,7 +3863,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -3816,10 +3871,10 @@
         <v>2400147602530</v>
       </c>
       <c r="D171">
-        <v>25.29560089111328</v>
+        <v>25.295600891113281</v>
       </c>
       <c r="E171">
-        <v>47.19441986083984</v>
+        <v>47.194419860839837</v>
       </c>
       <c r="F171" s="2">
         <v>45446</v>
@@ -3828,7 +3883,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -3839,7 +3894,7 @@
         <v>25.2872200012207</v>
       </c>
       <c r="E172">
-        <v>47.18935012817383</v>
+        <v>47.189350128173828</v>
       </c>
       <c r="F172" s="2">
         <v>45446</v>
@@ -3848,7 +3903,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -3859,7 +3914,7 @@
         <v>25.32040977478027</v>
       </c>
       <c r="E173">
-        <v>47.23563003540039</v>
+        <v>47.235630035400391</v>
       </c>
       <c r="F173" s="2">
         <v>45446</v>
@@ -3868,7 +3923,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -3879,7 +3934,7 @@
         <v>25.28391075134277</v>
       </c>
       <c r="E174">
-        <v>47.23839950561523</v>
+        <v>47.238399505615227</v>
       </c>
       <c r="F174" s="2">
         <v>45446</v>
@@ -3888,7 +3943,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -3896,7 +3951,7 @@
         <v>2400147603080</v>
       </c>
       <c r="D175">
-        <v>25.30541038513184</v>
+        <v>25.305410385131839</v>
       </c>
       <c r="E175">
         <v>47.2646484375</v>
@@ -3908,7 +3963,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -3919,7 +3974,7 @@
         <v>24.4199104309082</v>
       </c>
       <c r="E176">
-        <v>45.32884979248047</v>
+        <v>45.328849792480469</v>
       </c>
       <c r="F176" s="2">
         <v>45446</v>
@@ -3928,7 +3983,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -3936,10 +3991,10 @@
         <v>2400152000980</v>
       </c>
       <c r="D177">
-        <v>24.41122055053711</v>
+        <v>24.411220550537109</v>
       </c>
       <c r="E177">
-        <v>45.32754898071289</v>
+        <v>45.327548980712891</v>
       </c>
       <c r="F177" s="2">
         <v>45446</v>
@@ -3948,7 +4003,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -3956,10 +4011,10 @@
         <v>2400153000650</v>
       </c>
       <c r="D178">
-        <v>24.64809036254883</v>
+        <v>24.648090362548832</v>
       </c>
       <c r="E178">
-        <v>47.79748916625977</v>
+        <v>47.797489166259773</v>
       </c>
       <c r="F178" s="2">
         <v>45446</v>
@@ -3968,7 +4023,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -3976,10 +4031,10 @@
         <v>2400157300350</v>
       </c>
       <c r="D179">
-        <v>25.10408020019531</v>
+        <v>25.104080200195309</v>
       </c>
       <c r="E179">
-        <v>47.08478927612305</v>
+        <v>47.084789276123047</v>
       </c>
       <c r="F179" s="2">
         <v>45446</v>
@@ -3988,7 +4043,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -3996,10 +4051,10 @@
         <v>2400159401410</v>
       </c>
       <c r="D180">
-        <v>23.37335014343262</v>
+        <v>23.373350143432621</v>
       </c>
       <c r="E180">
-        <v>46.52241897583008</v>
+        <v>46.522418975830078</v>
       </c>
       <c r="F180" s="2">
         <v>45446</v>
@@ -4008,7 +4063,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4074,7 @@
         <v>24.9881706237793</v>
       </c>
       <c r="E181">
-        <v>47.56504821777344</v>
+        <v>47.565048217773438</v>
       </c>
       <c r="F181" s="2">
         <v>45446</v>
@@ -4028,7 +4083,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -4036,7 +4091,7 @@
         <v>2400175800210</v>
       </c>
       <c r="D182">
-        <v>24.98287963867188</v>
+        <v>24.982879638671879</v>
       </c>
       <c r="E182">
         <v>47.5618896484375</v>
@@ -4048,7 +4103,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -4056,10 +4111,10 @@
         <v>2400175800210</v>
       </c>
       <c r="D183">
-        <v>24.9832706451416</v>
+        <v>24.983270645141602</v>
       </c>
       <c r="E183">
-        <v>47.56209182739258</v>
+        <v>47.562091827392578</v>
       </c>
       <c r="F183" s="2">
         <v>45446</v>
@@ -4068,7 +4123,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -4076,10 +4131,10 @@
         <v>2400175800210</v>
       </c>
       <c r="D184">
-        <v>24.99596977233887</v>
+        <v>24.995969772338871</v>
       </c>
       <c r="E184">
-        <v>47.57378005981445</v>
+        <v>47.573780059814453</v>
       </c>
       <c r="F184" s="2">
         <v>45446</v>
@@ -4088,7 +4143,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -4099,7 +4154,7 @@
         <v>24.7800407409668</v>
       </c>
       <c r="E185">
-        <v>45.47837829589844</v>
+        <v>45.478378295898438</v>
       </c>
       <c r="F185" s="2">
         <v>45446</v>
@@ -4108,7 +4163,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -4116,10 +4171,10 @@
         <v>2400181500470</v>
       </c>
       <c r="D186">
-        <v>25.2950496673584</v>
+        <v>25.295049667358398</v>
       </c>
       <c r="E186">
-        <v>45.35316848754883</v>
+        <v>45.353168487548828</v>
       </c>
       <c r="F186" s="2">
         <v>45446</v>
@@ -4128,7 +4183,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -4136,10 +4191,10 @@
         <v>2400182107930</v>
       </c>
       <c r="D187">
-        <v>24.87833023071289</v>
+        <v>24.878330230712891</v>
       </c>
       <c r="E187">
-        <v>45.51438903808594</v>
+        <v>45.514389038085938</v>
       </c>
       <c r="F187" s="2">
         <v>45446</v>
@@ -4148,7 +4203,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -4156,10 +4211,10 @@
         <v>2400196704010</v>
       </c>
       <c r="D188">
-        <v>26.50464057922363</v>
+        <v>26.504640579223629</v>
       </c>
       <c r="E188">
-        <v>45.61190032958984</v>
+        <v>45.611900329589837</v>
       </c>
       <c r="F188" s="2">
         <v>45446</v>
@@ -4168,7 +4223,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -4176,10 +4231,10 @@
         <v>2400200500060</v>
       </c>
       <c r="D189">
-        <v>25.85433006286621</v>
+        <v>25.854330062866211</v>
       </c>
       <c r="E189">
-        <v>45.60786056518555</v>
+        <v>45.607860565185547</v>
       </c>
       <c r="F189" s="2">
         <v>45446</v>
@@ -4188,7 +4243,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -4196,10 +4251,10 @@
         <v>2400200500060</v>
       </c>
       <c r="D190">
-        <v>25.85424041748047</v>
+        <v>25.854240417480469</v>
       </c>
       <c r="E190">
-        <v>45.60792922973633</v>
+        <v>45.607929229736328</v>
       </c>
       <c r="F190" s="2">
         <v>45446</v>
@@ -4208,7 +4263,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -4216,10 +4271,10 @@
         <v>2400200500060</v>
       </c>
       <c r="D191">
-        <v>25.84416007995605</v>
+        <v>25.844160079956051</v>
       </c>
       <c r="E191">
-        <v>45.60886001586914</v>
+        <v>45.608860015869141</v>
       </c>
       <c r="F191" s="2">
         <v>45446</v>
@@ -4228,7 +4283,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -4239,7 +4294,7 @@
         <v>26.54080963134766</v>
       </c>
       <c r="E192">
-        <v>45.53255844116211</v>
+        <v>45.532558441162109</v>
       </c>
       <c r="F192" s="2">
         <v>45446</v>
@@ -4248,7 +4303,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -4256,10 +4311,10 @@
         <v>2400319704640</v>
       </c>
       <c r="D193">
-        <v>23.01483917236328</v>
+        <v>23.014839172363281</v>
       </c>
       <c r="E193">
-        <v>46.43951034545898</v>
+        <v>46.439510345458977</v>
       </c>
       <c r="F193" s="2">
         <v>45446</v>
@@ -4268,7 +4323,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -4279,7 +4334,7 @@
         <v>26.53129959106445</v>
       </c>
       <c r="E194">
-        <v>45.68399810791016</v>
+        <v>45.683998107910163</v>
       </c>
       <c r="F194" s="2">
         <v>45446</v>
@@ -4288,7 +4343,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -4296,10 +4351,10 @@
         <v>2402966000320</v>
       </c>
       <c r="D195">
-        <v>23.24484062194824</v>
+        <v>23.244840621948239</v>
       </c>
       <c r="E195">
-        <v>46.53396987915039</v>
+        <v>46.533969879150391</v>
       </c>
       <c r="F195" s="2">
         <v>45446</v>
@@ -4308,7 +4363,7 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -4316,10 +4371,10 @@
         <v>2402966000320</v>
       </c>
       <c r="D196">
-        <v>23.24757957458496</v>
+        <v>23.247579574584961</v>
       </c>
       <c r="E196">
-        <v>46.53120040893555</v>
+        <v>46.531200408935547</v>
       </c>
       <c r="F196" s="2">
         <v>45446</v>
